--- a/csv/model/CIMS_DCC/formula_CIMS_DCC_BC.xlsx
+++ b/csv/model/CIMS_DCC/formula_CIMS_DCC_BC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_DCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E167B-86D4-4C24-B904-EDAA8DDFB28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{044E2CB6-F644-4FB4-BD04-A6B86387DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54495" yWindow="-1680" windowWidth="26010" windowHeight="20985" xr2:uid="{A2AA7E6C-7DEE-4227-83B2-A90EB9D18383}"/>
+    <workbookView xWindow="41850" yWindow="4965" windowWidth="17280" windowHeight="8880" xr2:uid="{5C22FBF6-DB85-480F-8EC0-4C0C0A10AF7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432A56C-D19B-43AE-92AD-54E99A301C8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72BF7D9-4A97-47A1-81CA-4EA2EAFA1C9D}">
   <dimension ref="A1:X348"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:XFD168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
